--- a/bd1.xlsx
+++ b/bd1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мартин Банда\Desktop\для дз\ДЗбд1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC8038E-BD3D-48DA-94F4-736EAB32C707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFEA5FE-1AF0-4E5B-AC9E-A655AD128B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>Задача:</t>
   </si>
@@ -187,6 +187,66 @@
   </si>
   <si>
     <t>Коллектив можно заменять в случае болезни или отпуска работником из такого же района города либо смежные</t>
+  </si>
+  <si>
+    <t>водитель</t>
+  </si>
+  <si>
+    <t>номер телефона</t>
+  </si>
+  <si>
+    <t>адрес проживания</t>
+  </si>
+  <si>
+    <t>апав</t>
+  </si>
+  <si>
+    <t>ыфап</t>
+  </si>
+  <si>
+    <t>ыфпф</t>
+  </si>
+  <si>
+    <t>фап</t>
+  </si>
+  <si>
+    <t>фыапыап</t>
+  </si>
+  <si>
+    <t>афп</t>
+  </si>
+  <si>
+    <t>паыв</t>
+  </si>
+  <si>
+    <t>фып</t>
+  </si>
+  <si>
+    <t>авыф</t>
+  </si>
+  <si>
+    <t>цуа</t>
+  </si>
+  <si>
+    <t>цуйай</t>
+  </si>
+  <si>
+    <t>йуец</t>
+  </si>
+  <si>
+    <t>йц</t>
+  </si>
+  <si>
+    <t>йце</t>
+  </si>
+  <si>
+    <t>цйе</t>
+  </si>
+  <si>
+    <t>контактф водителей</t>
+  </si>
+  <si>
+    <t>контакты кондукторов-контролеров</t>
   </si>
 </sst>
 </file>
@@ -225,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +304,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -430,11 +496,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -454,6 +561,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -734,15 +861,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" customWidth="1"/>
     <col min="6" max="6" width="15.90625" customWidth="1"/>
     <col min="7" max="7" width="18.90625" customWidth="1"/>
@@ -1031,7 +1159,233 @@
         <v>49</v>
       </c>
     </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="H22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="19">
+        <v>123</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="H23" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19">
+        <v>4531134</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="19">
+        <v>3221</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="H24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="19">
+        <v>352353445</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="19">
+        <v>332</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="H25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="19">
+        <v>34524</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="19">
+        <v>432434</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="H26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="19">
+        <v>2315215</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="19">
+        <v>4325</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="H27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="19">
+        <v>54251</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="19">
+        <v>5523</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="H28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="19">
+        <v>2145245</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="19">
+        <v>555</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="H29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="19">
+        <v>215</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="19">
+        <v>2525</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="H30" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="19">
+        <v>3215454</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
